--- a/docs/ST4/ST4_14.08.2024_output.xlsx
+++ b/docs/ST4/ST4_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,140 +505,165 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731440399.3848326</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731440399.6460323</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440399.3848326.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440399.6460323.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>282.9</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>282.96</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731440400.0649405</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731440400.4714925</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440400.0649405.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731440400.4714925.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.53</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>282.53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,97 +671,115 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731440406.0106113</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731440406.2659292</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440406.0106113.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440406.2659292.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>282.96</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731440406.6615703</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731440407.0597148</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440406.6615703.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440407.0597148.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.53</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.53</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -729,1765 +787,2098 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731440413.4364147</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731440413.6091762</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440413.4364147.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440413.6091762.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.76</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.09000000000003183</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731440413.8555162</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731440414.1486588</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440413.8555162.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440414.1486588.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.75</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731440414.59954</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731440415.4885237</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440414.59954.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731440415.4885237.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.42</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731440419.287936</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731440419.4322288</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440419.287936.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440419.4322288.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.19</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.18</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731440420.3903685</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731440420.7281268</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440420.3903685.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731440420.7281268.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>131.28</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>131.26</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731440425.8688507</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731440426.2845392</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440425.8688507.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440426.2845392.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6497</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6515.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-18.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731440427.893417</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731440428.139554</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440427.893417.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731440428.139554.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6520</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6516.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731440430.3863711</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731440430.3863711.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+          <t>./test_images/LKOH1731440430.3863711.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>6466.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731440432.7717803</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731440432.9751139</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440432.7717803.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440432.9751139.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>501.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>502.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731440438.0229857</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731440438.8698726</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440438.0229857.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731440438.8698726.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>502.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>501.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.8000000000000114</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731440440.816568</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731440440.9740982</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440440.816568.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440440.9740982.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>225.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>225.86</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731440442.9957726</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731440443.8968334</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440442.9957726.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731440443.8968334.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>225.56</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>225.45</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731440443.9107964</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731440443.9107964.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+          <t>./test_images/MOEX1731440443.9107964.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.45</v>
       </c>
-      <c r="J19" t="n">
-        <v>225.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1.149999999999977</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731440460.1334865</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731440460.2605386</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440460.1334865.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731440460.2605386.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>12.163</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>12.165</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.001999999999998892</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731440461.4782987</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731440461.4782987.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+          <t>./test_images/CNY1731440461.4782987.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>12.121</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.121</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.03300000000000125</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731440464.1973248</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731440465.1461225</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440464.1973248.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440465.1461225.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.7000000000000028</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731440468.0790358</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731440468.903526</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440468.0790358.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731440468.903526.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.08</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.94</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731440469.3911538</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731440469.3911538.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+          <t>./test_images/GMKN1731440469.3911538.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>126.74</v>
       </c>
-      <c r="J24" t="n">
-        <v>126.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>126.16</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.5799999999999983</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731440472.1792169</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731440472.7232566</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440472.1792169.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440472.7232566.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>164.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>164.88</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731440476.6961746</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731440476.9173975</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440476.6961746.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731440476.9173975.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>164.82</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>164.96</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731440477.2656996</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731440477.2656996.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+          <t>./test_images/NLMK1731440477.2656996.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>164.66</v>
       </c>
-      <c r="J27" t="n">
-        <v>164.66</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731440484.9360616</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731440485.4048054</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440484.9360616.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731440485.4048054.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>50.24</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>50.315</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731440485.9766042</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731440485.9766042.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+          <t>./test_images/MAGN1731440485.9766042.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>50.07</v>
       </c>
-      <c r="J29" t="n">
-        <v>50.07</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731440493.3293457</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731440493.9830365</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440493.3293457.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731440493.9830365.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1398.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1400.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731440495.5590866</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731440495.6554856</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440495.5590866.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440495.6554856.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>59.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>59.66</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731440500.281896</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731440500.9635658</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440500.281896.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440500.9635658.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>59.64</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>59.62</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731440501.1793857</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731440501.4084675</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440501.1793857.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440501.4084675.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>59.56</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>59.59</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731440501.46059</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731440502.1675727</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440501.46059.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731440502.1675727.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>59.53</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>59.58</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731440502.675355</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731440504.212032</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440502.675355.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440504.212032.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>101.45</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>101.06</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.3900000000000006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731440504.9101622</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731440505.652543</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440504.9101622.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440505.652543.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>101.58</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>101.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731440510.284194</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731440510.6923447</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440510.284194.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731440510.6923447.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>101.01</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>101.19</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731440521.911575</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731440522.198983</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440521.911575.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440522.198983.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>157.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>157.7</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731440523.2048903</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731440524.3279712</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440523.2048903.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731440524.3279712.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>157.36</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>157</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731440538.5221736</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731440538.9298716</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440538.5221736.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731440538.9298716.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>20.666</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>20.78</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1140000000000008</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731440539.58323</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731440540.7369893</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440539.58323.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731440540.7369893.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>693.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>690.75</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-3.049999999999955</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731440550.556064</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731440550.7064931</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440550.556064.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440550.7064931.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>159.21</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>158.71</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731440552.610226</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731440553.1327176</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440552.610226.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731440553.1327176.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>156.31</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>156.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4900000000000091</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2530,6 +2921,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2546,6 +2947,12 @@
       <c r="D2" t="n">
         <v>0.02400000000001228</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2562,6 +2969,12 @@
       <c r="D3" t="n">
         <v>0.02999999999999758</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2578,6 +2991,12 @@
       <c r="D4" t="n">
         <v>-0.04333333333333655</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2586,13 +3005,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5600000000000023</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1866666666666674</v>
+        <v>-0.00666666666666534</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
@@ -2602,13 +3027,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15</v>
+        <v>-20.5</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-5</v>
+        <v>-6.833333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="7">
@@ -2618,13 +3049,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1700000000000159</v>
+        <v>-0.9799999999999613</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05666666666667197</v>
+        <v>-0.3266666666666538</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="8">
@@ -2634,13 +3071,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2199999999999989</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07333333333333296</v>
+        <v>-0.09333333333333371</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="9">
@@ -2658,6 +3101,12 @@
       <c r="D9" t="n">
         <v>0.4950000000000045</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2674,6 +3123,12 @@
       <c r="D10" t="n">
         <v>-0.08000000000001251</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2682,13 +3137,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001999999999998892</v>
+        <v>-0.03100000000000236</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009999999999994458</v>
+        <v>-0.01550000000000118</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="12">
@@ -2706,6 +3167,12 @@
       <c r="D12" t="n">
         <v>0.01500000000000057</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2714,13 +3181,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07499999999999574</v>
+        <v>0.144999999999996</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03749999999999787</v>
+        <v>0.07249999999999801</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
@@ -2738,6 +3211,12 @@
       <c r="D14" t="n">
         <v>0.09999999999999432</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2754,6 +3233,12 @@
       <c r="D15" t="n">
         <v>0.03000000000000114</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2770,6 +3255,12 @@
       <c r="D16" t="n">
         <v>0.1140000000000008</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2786,6 +3277,12 @@
       <c r="D17" t="n">
         <v>-3.049999999999955</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2802,6 +3299,12 @@
       <c r="D18" t="n">
         <v>2.599999999999909</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2816,6 +3319,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
